--- a/environment.xlsx
+++ b/environment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miett\Omat\Information Visualization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB2C3D-321C-42F4-9626-0C4A62335873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39A718F-E593-4962-8EF4-37E0372B9317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Entity</t>
   </si>
@@ -176,13 +176,52 @@
   </si>
   <si>
     <t>Food emissions of retail</t>
+  </si>
+  <si>
+    <t>Fruits &amp; Vegetables &amp; Mushrooms</t>
+  </si>
+  <si>
+    <t>Sugar products</t>
+  </si>
+  <si>
+    <t>Carbs</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Grain products</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Meat products</t>
+  </si>
+  <si>
+    <t>Milk products</t>
+  </si>
+  <si>
+    <t>Fish products</t>
+  </si>
+  <si>
+    <t>Poultry</t>
+  </si>
+  <si>
+    <t>Legume products</t>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +233,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,9 +276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -538,1292 +586,1431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.3125" customWidth="1"/>
-    <col min="3" max="3" width="34.68359375" customWidth="1"/>
-    <col min="4" max="4" width="24.15625" customWidth="1"/>
+    <col min="1" max="1" width="25.05078125" customWidth="1"/>
+    <col min="2" max="2" width="26.15625" customWidth="1"/>
+    <col min="3" max="3" width="21.5234375" customWidth="1"/>
+    <col min="4" max="4" width="24.41796875" customWidth="1"/>
+    <col min="5" max="5" width="27.47265625" customWidth="1"/>
+    <col min="6" max="6" width="33.41796875" customWidth="1"/>
+    <col min="7" max="7" width="25.9453125" customWidth="1"/>
+    <col min="8" max="8" width="30.15625" customWidth="1"/>
+    <col min="9" max="9" width="14.26171875" customWidth="1"/>
+    <col min="10" max="10" width="19.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
         <v>-2.8951464E-2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.225815762</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>3.8201379999999998E-3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.5804473000000001E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.6577621000000001E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.4526409000000003E-2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7.0807864999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
         <v>-2.5533871E-2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.269618358</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>6.0145919999999999E-2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.29583036200000001</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.0980708000000001E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>6.5670277999999999E-2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.17518462700000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
         <v>8.6755500000000006E-3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.17637672099999999</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.127702596</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.5351163999999997E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.26358711000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.496786387</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7.0691954000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
         <v>23.23753584</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>56.228062790000003</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.6809785279999998</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.8110830090000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.49412457799999998</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.233537838</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.35208445100000002</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14.43999758</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6">
         <v>1.2660222910000001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>21.915529410000001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.5036734040000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.547664428</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.59240981500000001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.254032327</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.37454910299999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.8475146439999999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
         <v>5.1900000000000001E-5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.53572130600000001</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0.241885457</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.62854390199999999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9.0289044999999998E-2</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.27626252600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
         <v>2.4600996999999999E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.71784815000000002</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.236391771</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.7056878000000001E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.211092325</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.32489512100000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
         <v>2.242361E-3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.277745354</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>9.4640881999999996E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.6843897E-2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.5303060999999999E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7.7780875999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
         <v>1.263040556</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.49126985200000001</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>3.7380972999999998E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.79451029200000001</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3.6723005000000003E-2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>8.4277185000000004E-2</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.49172229499999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11">
         <v>0.58943566400000003</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.219993617</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>9.3597397999999998E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.4821982000000003E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.328503936</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
         <v>4.4674763090000003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>13.095539199999999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.3530575599999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.74038629300000003</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.138556663</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.33333774100000002</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.172090931</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.5771365209999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-0.14595365499999999</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.306732538</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>9.3855316999999994E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.6685298000000001E-2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4.4735127E-2</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>7.1570081999999993E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
         <v>3.818798535</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>10.75444008</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>0.61318519400000004</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.134528124</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5.2486794000000003E-2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.6874962659999999</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>11.466971089999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
         <v>25.814832979999998</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.6870022599999999</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.33374389199999999</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.110871398</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.7652218000000001E-2</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.72243361299999997</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>12.94020883</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
         <v>0.710381288</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.3196365560000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2.205012424</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>8.4063930999999995E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.5615940999999998E-2</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.16143735000000001</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.15332346299999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
         <v>1.194717129</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>8.0561148340000006</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.834420269</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4.4598631999999999E-2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.24795862799999999</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8.9975617999999993E-2</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.13753739200000001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.02712264</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
         <v>0.48515239999999998</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1.575954219</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0.41091750599999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.13259722900000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.6872604999999998E-2</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.109439863</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.46907976499999998</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
         <v>0.64824697499999995</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>27.025749470000001</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3.2831703339999998</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.5395961490000001</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.67885429500000005</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.30081406799999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.34760362</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.8982345169999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
         <v>0.47516903599999999</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.717274411</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>7.8319173000000006E-2</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9.0377117000000007E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.9312998000000002E-2</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>9.0267539999999993E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.210791222</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>0.51222255000000005</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1.5088620349999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.243814063</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.154189035</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9.3235400999999996E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.265149784</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.100180454</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.27406628900000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
         <v>-3.2578121329999998</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3.3744068149999999</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>5.1419527999999999E-2</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.106734489</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.2638569000000001E-2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.123747546</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-7.9995320000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
         <v>1.931697E-3</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.8723736550000001</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>5.7838235000000002E-2</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9.1276148000000001E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>9.0289044999999998E-2</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.327418343</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
         <v>-0.323684317</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.6721720590000002</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.56718882800000003</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.414114186</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.74011669300000005</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.31564603099999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
         <v>4.8089719999999999E-3</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.211039002</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>9.4781878E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3.9249706000000002E-2</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>4.4784978000000003E-2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.10209852799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
         <v>0.12703530599999999</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.37257897200000001</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>1.5557814999999999E-2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.18316495299999999</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.6432177999999999E-2</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4.1961205000000001E-2</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.29602162399999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
         <v>3.3302445999999999E-2</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.0887147800000001</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>9.6176970000000001E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.353229974</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.17563303999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
         <v>1.180576E-3</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.17617307800000001</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>6.0405148999999998E-2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.165549737</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.5135272999999999E-2</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.1747507000000003E-2</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>7.1981327999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
         <v>2.7555850780000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.8751319559999999</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>1.1253257379999999</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.18511686799999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3.8737674E-2</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.78810804800000001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.54876513100000002</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
         <v>1.18777E-4</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.71715996599999998</v>
       </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>9.5067088999999994E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4.4821982000000003E-2</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>7.8590739000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
         <v>2.244068682</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.4770976689999999</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4.2984762940000003</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.41584184299999999</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.50126386499999998</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.27809601299999998</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.432286318</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1.658551095</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
         <v>-1.3151009999999999E-3</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.19308341500000001</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>9.3867162000000004E-2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>3.9243543999999998E-2</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4.4549374000000003E-2</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>9.0705704999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
         <v>3.5084287980000002</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.92782183399999996</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.4523570330000002</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.60737272899999994</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.38107830199999998</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.24397660700000001</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.29270238300000001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.452085944</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
         <v>0.19557476100000001</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>2.1566301029999999</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>0.17787530500000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.17514716999999999</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4.2540886E-2</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.77663779099999997</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.24326657500000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
         <v>-2.1879639999999999E-2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3.5539536269999998</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>6.5220035999999995E-2</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>9.5619114000000005E-2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>6.3362152000000005E-2</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>8.3853898999999996E-2</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.61151664299999997</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36">
         <v>1.3389332E-2</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.153994029</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>0.113769657</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.8855213E-2</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>4.4662141000000002E-2</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>6.1609680999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
         <v>0.33056307400000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>13.45397854</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>4.0299385670000003</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>0.330851591</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.35236112400000003</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.53614729699999997</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>7.8320221510000003</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38">
         <v>0.179971835</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>9.2768044999999993E-2</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>0.16250910499999999</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.109835191</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.27017248999999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>9.8395214999999994E-2</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>6.1527272000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39">
         <v>2.866183849</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1.406293945</v>
       </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>0.28777581499999999</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.27695030199999998</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>3.9402754999999998E-2</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>0.78606844899999995</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.66179640399999995</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
         <v>0.122421009</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.976377998</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>0.21071442900000001</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.18454226000000001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.78446469500000005</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.28163570999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41">
         <v>0.95822960700000004</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.49470147399999997</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>0.79388450300000002</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.17692529200000001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.27017248999999999</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>0.17736057199999999</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.29047042299999998</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42">
         <v>0.37298726500000001</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.70544679200000004</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>1.2381556E-2</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.177110774</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>1.6691530999999999E-2</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.145671363</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.658417374</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
         <v>9.7130027999999993E-2</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.82030015300000003</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>0.21012877099999999</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.12544097700000001</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>5.6049069999999999E-2</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8.6838973999999999E-2</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.17793508999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
         <v>-6.1264312000000001E-2</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.62602693600000003</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <v>0.13862640700000001</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>9.3284143E-2</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>3.9322363999999999E-2</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.74923152400000004</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.20353575700000001</v>
       </c>
     </row>
